--- a/ExternalSortAnalys.xlsx
+++ b/ExternalSortAnalys.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="21">
   <si>
     <t xml:space="preserve">Consistent </t>
   </si>
@@ -66,10 +66,22 @@
     <t>speed-up</t>
   </si>
   <si>
-    <t>Size of the file(integers, in Mb)</t>
+    <t>s - sort</t>
   </si>
   <si>
-    <t>s - sort</t>
+    <t>Size of the file(in integers)</t>
+  </si>
+  <si>
+    <t>10 - amount of chunks</t>
+  </si>
+  <si>
+    <t>25000 - size of chunk</t>
+  </si>
+  <si>
+    <t>ProducerConsumer_posix</t>
+  </si>
+  <si>
+    <t>time, sec</t>
   </si>
 </sst>
 </file>
@@ -105,8 +117,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -240,13 +255,13 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>250000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>500000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>1000000</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -261,7 +276,7 @@
                   <c:v>1.3297950146845205</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.4873928830082153</c:v>
+                  <c:v>1.4873928830082155</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1.3311521642582158</c:v>
@@ -301,7 +316,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.95315448095360544</c:v>
+                  <c:v>0.95315448095360555</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.0206092285016619</c:v>
@@ -350,7 +365,7 @@
                   <c:v>1.3954978582739388</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.334071094879111</c:v>
+                  <c:v>1.3340710948791108</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -390,10 +405,10 @@
                   <c:v>1.0704764586544318</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.255730867333519</c:v>
+                  <c:v>1.2557308673335188</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.2363381898679957</c:v>
+                  <c:v>1.2363381898679955</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -402,6 +417,92 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-3B77-41D4-8B21-6B75C4385440}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>ProdConsumPosix(4,4)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$X$4:$X$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.5405757006909548</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9134520088973461</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.704535558176133</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7EA8-48B9-9F97-9A22B8C0CAAF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>ProdConsumPosix(2,2)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$Z$4:$Z$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.4405853248164464</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7487737184958871</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6892843216770299</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7EA8-48B9-9F97-9A22B8C0CAAF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1284,16 +1385,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>470476</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>47528</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>278054</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>9044</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>67348</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>86589</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>481062</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>48105</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1578,115 +1679,129 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AT6"/>
+  <dimension ref="A1:AT9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="W1" sqref="W1:X4"/>
+      <selection activeCell="Z7" sqref="Z7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2" t="s">
+      <c r="A1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2" t="s">
+      <c r="F1" s="3"/>
+      <c r="G1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2" t="s">
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2" t="s">
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
+      <c r="AB1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="X1" s="2"/>
-      <c r="AQ1" s="2" t="s">
+      <c r="AC1" s="3"/>
+      <c r="AQ1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="AR1" s="2"/>
-      <c r="AS1" s="2"/>
-      <c r="AT1" s="2"/>
+      <c r="AR1" s="3"/>
+      <c r="AS1" s="3"/>
+      <c r="AT1" s="3"/>
     </row>
     <row r="2" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2" t="s">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2" t="s">
+      <c r="H2" s="3"/>
+      <c r="I2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2" t="s">
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2" t="s">
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2" t="s">
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z2" s="3"/>
+      <c r="AB2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="X2" s="2"/>
-      <c r="AQ2" s="2" t="s">
+      <c r="AC2" s="3"/>
+      <c r="AQ2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="AR2" s="2"/>
-      <c r="AS2" s="2" t="s">
+      <c r="AR2" s="3"/>
+      <c r="AS2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="AT2" s="2"/>
+      <c r="AT2" s="3"/>
     </row>
     <row r="3" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
       <c r="G3" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H3" t="s">
         <v>14</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="J3" t="s">
         <v>14</v>
@@ -1694,13 +1809,13 @@
       <c r="K3" s="1"/>
       <c r="M3" s="1"/>
       <c r="O3" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="P3" t="s">
         <v>14</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="R3" t="s">
         <v>14</v>
@@ -1708,9 +1823,21 @@
       <c r="S3" s="1"/>
       <c r="U3" s="1"/>
       <c r="W3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="X3" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X3" s="2"/>
+      <c r="AC3" s="3"/>
       <c r="AQ3" s="1" t="s">
         <v>13</v>
       </c>
@@ -1725,48 +1852,67 @@
       </c>
     </row>
     <row r="4" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A4" s="2">
-        <v>1</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2">
-        <v>14715.579093</v>
-      </c>
-      <c r="F4" s="2"/>
+      <c r="A4" s="3">
+        <v>250000</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3">
+        <f>14715.579093 / 1000</f>
+        <v>14.715579093000001</v>
+      </c>
+      <c r="F4" s="3"/>
       <c r="G4">
-        <v>11066.050730000001</v>
+        <f>11066.05073 / 1000</f>
+        <v>11.066050730000001</v>
       </c>
       <c r="H4">
         <f>E4/G4</f>
         <v>1.3297950146845205</v>
       </c>
       <c r="I4">
-        <v>15438.818562</v>
+        <f>15438.818562 / 1000</f>
+        <v>15.438818562</v>
       </c>
       <c r="J4">
         <f>E4/I4</f>
-        <v>0.95315448095360544</v>
+        <v>0.95315448095360555</v>
       </c>
       <c r="O4">
-        <v>11145.34136</v>
+        <f>11145.34136 / 1000</f>
+        <v>11.14534136</v>
       </c>
       <c r="P4">
         <f>E4/O4</f>
         <v>1.3203345341950119</v>
       </c>
       <c r="Q4">
-        <v>13746.756385000001</v>
+        <f>13746.756385 / 1000</f>
+        <v>13.746756385000001</v>
       </c>
       <c r="R4">
         <f>E4/Q4</f>
         <v>1.0704764586544318</v>
       </c>
-      <c r="W4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="X4" s="2"/>
+      <c r="W4">
+        <v>9.5519999999999996</v>
+      </c>
+      <c r="X4">
+        <f>E4/W4</f>
+        <v>1.5405757006909548</v>
+      </c>
+      <c r="Y4">
+        <v>10.215</v>
+      </c>
+      <c r="Z4">
+        <f>E4/Y4</f>
+        <v>1.4405853248164464</v>
+      </c>
+      <c r="AB4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC4" s="3"/>
       <c r="AQ4">
         <v>5866.4505140000001</v>
       </c>
@@ -1775,43 +1921,62 @@
       </c>
     </row>
     <row r="5" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A5" s="2">
-        <v>2</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2">
-        <v>37205.160860999997</v>
-      </c>
-      <c r="F5" s="2"/>
+      <c r="A5" s="3">
+        <v>500000</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3">
+        <f>37205.160861 / 1000</f>
+        <v>37.205160860999996</v>
+      </c>
+      <c r="F5" s="3"/>
       <c r="G5">
-        <v>25013.674117999999</v>
+        <f>25013.674118 / 1000</f>
+        <v>25.013674117999997</v>
       </c>
       <c r="H5">
         <f>E5/G5</f>
-        <v>1.4873928830082153</v>
+        <v>1.4873928830082155</v>
       </c>
       <c r="I5">
-        <v>36453.874628999998</v>
+        <f>36453.874629 / 1000</f>
+        <v>36.453874628999998</v>
       </c>
       <c r="J5">
         <f>E5/I5</f>
         <v>1.0206092285016619</v>
       </c>
       <c r="O5">
-        <v>26660.851279999999</v>
+        <f>26660.85128 / 1000</f>
+        <v>26.660851279999999</v>
       </c>
       <c r="P5">
         <f>E5/O5</f>
         <v>1.3954978582739388</v>
       </c>
       <c r="Q5">
-        <v>29628.29204</v>
+        <f>29628.29204 / 1000</f>
+        <v>29.628292040000002</v>
       </c>
       <c r="R5">
         <f>E5/Q5</f>
-        <v>1.255730867333519</v>
+        <v>1.2557308673335188</v>
+      </c>
+      <c r="W5">
+        <v>19.443999999999999</v>
+      </c>
+      <c r="X5">
+        <f>E5/W5</f>
+        <v>1.9134520088973461</v>
+      </c>
+      <c r="Y5">
+        <v>21.274999999999999</v>
+      </c>
+      <c r="Z5">
+        <f>E5/Y5</f>
+        <v>1.7487737184958871</v>
       </c>
       <c r="AQ5">
         <v>6766.8138980000003</v>
@@ -1821,47 +1986,102 @@
       </c>
     </row>
     <row r="6" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A6" s="2">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2">
-        <v>82317.135710999995</v>
-      </c>
-      <c r="F6" s="2"/>
+      <c r="A6" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3">
+        <f>82317.135711 / 1000</f>
+        <v>82.317135710999992</v>
+      </c>
+      <c r="F6" s="3"/>
       <c r="G6">
-        <v>61839.012790000001</v>
+        <f>61839.01279 / 1000</f>
+        <v>61.839012789999998</v>
       </c>
       <c r="H6">
         <f>E6/G6</f>
         <v>1.3311521642582158</v>
       </c>
       <c r="I6">
-        <v>92966.988417</v>
+        <f>92966.988417 / 1000</f>
+        <v>92.966988416999996</v>
       </c>
       <c r="J6">
         <f>E6/I6</f>
         <v>0.88544479188429248</v>
       </c>
       <c r="O6">
-        <v>61703.709815000002</v>
+        <f>61703.709815 / 1000</f>
+        <v>61.703709815000003</v>
       </c>
       <c r="P6">
         <f>E6/O6</f>
-        <v>1.334071094879111</v>
+        <v>1.3340710948791108</v>
       </c>
       <c r="Q6">
-        <v>66581.406596999994</v>
+        <f>66581.406597 / 1000</f>
+        <v>66.581406596999997</v>
       </c>
       <c r="R6">
         <f>E6/Q6</f>
-        <v>1.2363381898679957</v>
-      </c>
+        <v>1.2363381898679955</v>
+      </c>
+      <c r="W6">
+        <v>48.292999999999999</v>
+      </c>
+      <c r="X6">
+        <f>E6/W6</f>
+        <v>1.704535558176133</v>
+      </c>
+      <c r="Y6">
+        <v>48.728999999999999</v>
+      </c>
+      <c r="Z6">
+        <f>E6/Y6</f>
+        <v>1.6892843216770299</v>
+      </c>
+    </row>
+    <row r="8" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+    </row>
+    <row r="9" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="25">
+  <mergeCells count="30">
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="W1:Z1"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="AB3:AC3"/>
+    <mergeCell ref="AB4:AC4"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="AQ2:AR2"/>
+    <mergeCell ref="AS2:AT2"/>
+    <mergeCell ref="G1:N1"/>
+    <mergeCell ref="O1:V1"/>
+    <mergeCell ref="AQ1:AT1"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AB2:AC2"/>
     <mergeCell ref="A6:D6"/>
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="A1:D3"/>
@@ -1869,23 +2089,6 @@
     <mergeCell ref="A5:D5"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="E5:F5"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="AQ2:AR2"/>
-    <mergeCell ref="AS2:AT2"/>
-    <mergeCell ref="G1:N1"/>
-    <mergeCell ref="O1:V1"/>
-    <mergeCell ref="AQ1:AT1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="Q2:R2"/>
     <mergeCell ref="E1:F3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
